--- a/art/美术制作规范/怪物比例.xlsx
+++ b/art/美术制作规范/怪物比例.xlsx
@@ -392,6 +392,82 @@
         <a:xfrm>
           <a:off x="13607" y="9348107"/>
           <a:ext cx="2676190" cy="1428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>353786</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>299024</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>164440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5796643" y="7715250"/>
+          <a:ext cx="2666667" cy="1647619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>163287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>259582</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>176715</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5919106" y="9538608"/>
+          <a:ext cx="2504762" cy="1428571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -669,7 +745,7 @@
   <dimension ref="E42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+      <selection activeCell="K58" sqref="K58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/art/美术制作规范/怪物比例.xlsx
+++ b/art/美术制作规范/怪物比例.xlsx
@@ -468,6 +468,44 @@
         <a:xfrm>
           <a:off x="5919106" y="9538608"/>
           <a:ext cx="2504762" cy="1428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>164286</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>56988</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8844643" y="6191250"/>
+          <a:ext cx="2885714" cy="1295238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -745,7 +783,7 @@
   <dimension ref="E42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K58" sqref="K58"/>
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/art/美术制作规范/怪物比例.xlsx
+++ b/art/美术制作规范/怪物比例.xlsx
@@ -506,6 +506,186 @@
         <a:xfrm>
           <a:off x="8844643" y="6191250"/>
           <a:ext cx="2885714" cy="1295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>40822</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>68036</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>40822</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="矩形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1401536" y="3211286"/>
+          <a:ext cx="707571" cy="367393"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1.0</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>639536</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>94894</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>108678</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8803822" y="7701643"/>
+          <a:ext cx="2857143" cy="1428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>625929</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>71763</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>101892</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8790215" y="9606642"/>
+          <a:ext cx="2847619" cy="1285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>462644</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>108856</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>531691</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>137273</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12028715" y="6123213"/>
+          <a:ext cx="2790476" cy="1266667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -782,8 +962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA29" sqref="AA29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/art/美术制作规范/怪物比例.xlsx
+++ b/art/美术制作规范/怪物比例.xlsx
@@ -686,6 +686,310 @@
         <a:xfrm>
           <a:off x="12028715" y="6123213"/>
           <a:ext cx="2790476" cy="1266667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>557893</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>3726</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>92345</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12123964" y="7647214"/>
+          <a:ext cx="2847619" cy="1466667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>394608</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>254131</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>74678</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11960679" y="9579428"/>
+          <a:ext cx="2580952" cy="1285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>585106</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>108858</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>463677</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>103239</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14872606" y="9484179"/>
+          <a:ext cx="2600000" cy="1409524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>244929</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>133024</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>133190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="图片 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15212786" y="6109607"/>
+          <a:ext cx="2609524" cy="1276190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>108856</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>221464</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>27046</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="图片 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15253607" y="7715249"/>
+          <a:ext cx="2657143" cy="1333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>408214</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>286786</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>118214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="图片 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18097500" y="6027964"/>
+          <a:ext cx="2600000" cy="1342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>40822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>326250</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>31143</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="图片 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18165535" y="7647215"/>
+          <a:ext cx="2571429" cy="1228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>136071</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>24167</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>91012</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="图片 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17825357" y="9633857"/>
+          <a:ext cx="2609524" cy="1247619"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -962,8 +1266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA29" sqref="AA29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AG58" sqref="AG58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/art/美术制作规范/怪物比例.xlsx
+++ b/art/美术制作规范/怪物比例.xlsx
@@ -990,6 +990,44 @@
         <a:xfrm>
           <a:off x="17825357" y="9633857"/>
           <a:ext cx="2609524" cy="1247619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>501785</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>28417</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="图片 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21091071" y="6191250"/>
+          <a:ext cx="2542857" cy="1266667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1267,7 +1305,7 @@
   <dimension ref="E42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AG58" sqref="AG58"/>
+      <selection activeCell="AF36" sqref="AF36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
